--- a/Udacity/module_2/linear-example-data.xlsx
+++ b/Udacity/module_2/linear-example-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.junior\Documents\GitHub\DataScience\Udacity\module_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\GitHub\DataScience\Udacity\module_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Average Number of Tickets</t>
   </si>
@@ -117,6 +117,27 @@
   </si>
   <si>
     <t>Quiz aula 13</t>
+  </si>
+  <si>
+    <t>Quiz aula 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacidade </t>
+  </si>
+  <si>
+    <t>Recursos livre</t>
+  </si>
+  <si>
+    <t>Demanda atual</t>
+  </si>
+  <si>
+    <t>N de chamados novo cliente</t>
+  </si>
+  <si>
+    <t>Nova contratação</t>
+  </si>
+  <si>
+    <t>Quis aula 6 projeto 1</t>
   </si>
 </sst>
 </file>
@@ -224,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +264,9 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,38 +547,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -562,7 +586,7 @@
         <v>0.93682622258527759</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -570,7 +594,7 @@
         <v>0.87764337132340009</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -578,7 +602,7 @@
         <v>0.86324847383203529</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -586,7 +610,7 @@
         <v>11.20647332176701</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -594,12 +618,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>19</v>
@@ -617,7 +641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -637,7 +661,7 @@
         <v>1.7572508786104934E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -653,7 +677,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -667,8 +691,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>24</v>
@@ -695,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -724,7 +748,7 @@
         <v>-9.4548341878081832</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -753,7 +777,7 @@
         <v>0.161730172441584</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -782,18 +806,101 @@
         <v>1.0641289618064679E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>-24.267 + 0.1019*750 + 0.0007*13000</f>
         <v>61.258000000000003</v>
       </c>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>-18.45 + 0.1116*732 + 0.0004858*825000 + 12.49</f>
+        <v>476.51619999999997</v>
+      </c>
+      <c r="B27">
+        <f>125*23</f>
+        <v>2875</v>
+      </c>
+      <c r="C27">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>477</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>75</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>(477-75)/125</f>
+        <v>3.2160000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f>303.46 + (-149.36 + 66.98*3)</f>
+        <v>355.03999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f>A35*0.305035807</f>
+        <v>108.29991291727998</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -806,13 +913,13 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -840,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -854,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>20</v>
       </c>
@@ -868,7 +975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -882,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -896,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>30</v>
       </c>
@@ -910,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>20</v>
       </c>
@@ -924,7 +1031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -938,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>20</v>
       </c>
@@ -952,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>50</v>
       </c>
@@ -966,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>35</v>
       </c>
@@ -980,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>65</v>
       </c>
@@ -994,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>35</v>
       </c>
@@ -1008,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>60</v>
       </c>
@@ -1022,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>85</v>
       </c>
@@ -1036,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>40</v>
       </c>
@@ -1050,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>75</v>
       </c>
@@ -1064,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>85</v>
       </c>
@@ -1078,7 +1185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>65</v>
       </c>
@@ -1092,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>95</v>
       </c>
@@ -1119,9 +1226,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f xml:space="preserve"> -468 + (0.067 * 5132) + (1349 * 0.334) - (14.4 * 0) - (9.3 * 0) + (16.5 * 1)</f>
         <v>342.91</v>
